--- a/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq/AR2_50_6_qoq_forecast_error_table_latest_eval_ifoCASTset_naive_qoq.xlsx
+++ b/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq/AR2_50_6_qoq_forecast_error_table_latest_eval_ifoCASTset_naive_qoq.xlsx
@@ -441,22 +441,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.0654546110452479</v>
+        <v>0.05840758140714978</v>
       </c>
       <c r="C2">
-        <v>0.438372003519677</v>
+        <v>0.4409791216474546</v>
       </c>
       <c r="D2">
-        <v>0.293991591689361</v>
+        <v>0.2667866710384161</v>
       </c>
       <c r="E2">
-        <v>0.5422099147833439</v>
+        <v>0.516513960158306</v>
       </c>
       <c r="F2">
-        <v>0.5454697170509424</v>
+        <v>0.5247350061034883</v>
       </c>
       <c r="G2">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,22 +464,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.06617951938456694</v>
+        <v>-0.05340109584861563</v>
       </c>
       <c r="C3">
-        <v>0.3947784450638892</v>
+        <v>0.4540875107102993</v>
       </c>
       <c r="D3">
-        <v>0.277876257526661</v>
+        <v>0.3529642137760092</v>
       </c>
       <c r="E3">
-        <v>0.5271396945086387</v>
+        <v>0.5941079142512824</v>
       </c>
       <c r="F3">
-        <v>0.5301826614847388</v>
+        <v>0.6056274121084158</v>
       </c>
       <c r="G3">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,22 +487,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06725957629356502</v>
+        <v>0.007645369755567248</v>
       </c>
       <c r="C4">
-        <v>0.4083782255390971</v>
+        <v>0.3509924135764588</v>
       </c>
       <c r="D4">
-        <v>0.2710723508921263</v>
+        <v>0.1959930255899154</v>
       </c>
       <c r="E4">
-        <v>0.5206460898653963</v>
+        <v>0.4427109955602135</v>
       </c>
       <c r="F4">
-        <v>0.5236068866294284</v>
+        <v>0.4535761265838148</v>
       </c>
       <c r="G4">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,22 +510,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.03233064674844609</v>
+        <v>0.02282081712085722</v>
       </c>
       <c r="C5">
-        <v>0.3988669185905825</v>
+        <v>0.438926864498886</v>
       </c>
       <c r="D5">
-        <v>0.2419592588943394</v>
+        <v>0.2988641407746598</v>
       </c>
       <c r="E5">
-        <v>0.4918935442698342</v>
+        <v>0.5466846813060156</v>
       </c>
       <c r="F5">
-        <v>0.4979956763966233</v>
+        <v>0.5603977451029019</v>
       </c>
       <c r="G5">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,22 +533,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03687653726771857</v>
+        <v>-0.05378243244753005</v>
       </c>
       <c r="C6">
-        <v>0.4010056720780518</v>
+        <v>0.3326390093669921</v>
       </c>
       <c r="D6">
-        <v>0.2450559997481401</v>
+        <v>0.1611897605005107</v>
       </c>
       <c r="E6">
-        <v>0.4950313118865716</v>
+        <v>0.4014844461501724</v>
       </c>
       <c r="F6">
-        <v>0.5010796859572523</v>
+        <v>0.4087682716779366</v>
       </c>
       <c r="G6">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,22 +556,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.03282310857458528</v>
+        <v>0.04139547620532348</v>
       </c>
       <c r="C7">
-        <v>0.4142779863120112</v>
+        <v>0.4699317255372737</v>
       </c>
       <c r="D7">
-        <v>0.2591146217536016</v>
+        <v>0.3299399826863903</v>
       </c>
       <c r="E7">
-        <v>0.5090330261914267</v>
+        <v>0.5744040239120808</v>
       </c>
       <c r="F7">
-        <v>0.5158497163298988</v>
+        <v>0.5895200016688675</v>
       </c>
       <c r="G7">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,22 +579,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.04595730473847504</v>
+        <v>-0.06403854691678806</v>
       </c>
       <c r="C8">
-        <v>0.416986596375212</v>
+        <v>0.3447545510297237</v>
       </c>
       <c r="D8">
-        <v>0.2628667045365627</v>
+        <v>0.1811657263351024</v>
       </c>
       <c r="E8">
-        <v>0.5127052803868541</v>
+        <v>0.4256356732407452</v>
       </c>
       <c r="F8">
-        <v>0.5188121725412961</v>
+        <v>0.433741098204484</v>
       </c>
       <c r="G8">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
